--- a/excel/样表-xxxx~xxxx学年xx成绩.xlsx
+++ b/excel/样表-xxxx~xxxx学年xx成绩.xlsx
@@ -5,14 +5,16 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\IDEA\ECIPCSweb\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workplace\IDEA\ECIPCSweb\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12825"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="评价表(总表)" sheetId="3" r:id="rId1"/>
+    <sheet name="原始成绩" sheetId="1" r:id="rId2"/>
+    <sheet name="评价方法" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="23">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -77,12 +79,91 @@
     <t>分配分数</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>软件系统 30 分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相关文档 20 分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>过程管理 30 分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>答辩表现 20 分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总分</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>评价值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够完成软件工程项目实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够完成软件工程项目实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color rgb="FF000000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>能够完成软件工程项目实践</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="176" formatCode="0.00_);[Red]\(0.00\)"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +188,35 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -116,12 +226,66 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -130,7 +294,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -139,6 +303,51 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -420,9 +629,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
@@ -2141,4 +2363,452 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M24" sqref="M24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="45.125" customWidth="1"/>
+    <col min="2" max="2" width="15.25" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="19" customWidth="1"/>
+    <col min="5" max="5" width="16.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" s="3"/>
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="4">
+        <v>25</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="9">
+        <v>5</v>
+      </c>
+      <c r="F2" s="10">
+        <f>SUM(B2:E2)</f>
+        <v>30</v>
+      </c>
+      <c r="G2" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H2" s="11">
+        <f>F3/F2*G2</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" s="8"/>
+      <c r="B3" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F3" s="10">
+        <f>SUM(B3:E3)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4">
+        <v>25</v>
+      </c>
+      <c r="C4" s="5"/>
+      <c r="D4" s="9">
+        <v>5</v>
+      </c>
+      <c r="E4" s="15"/>
+      <c r="F4" s="10">
+        <f>SUM(B4:D4)</f>
+        <v>30</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="H4" s="16">
+        <f>F5/F4*G4</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" s="17"/>
+      <c r="B5" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C5" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="D5" s="5"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="10">
+        <f>SUM(B5:D5)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="4">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9">
+        <v>5</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="9">
+        <v>5</v>
+      </c>
+      <c r="F6" s="10">
+        <f>SUM(B6:E6)</f>
+        <v>35</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H6" s="11">
+        <f>F7/F6*G6</f>
+        <v>0.22589999999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="8"/>
+      <c r="B7" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="E7" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F7" s="10">
+        <f>SUM(B7:E7)</f>
+        <v>26.354999999999997</v>
+      </c>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" s="4">
+        <v>25</v>
+      </c>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="9">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10">
+        <f>SUM(B8:E8)</f>
+        <v>30</v>
+      </c>
+      <c r="G8" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H8" s="11">
+        <f>F9/F8*G8</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="8"/>
+      <c r="B9" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F9" s="10">
+        <f>SUM(B9:E9)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" s="4">
+        <v>25</v>
+      </c>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="9">
+        <v>5</v>
+      </c>
+      <c r="F10" s="10">
+        <f>SUM(B10:E10)</f>
+        <v>30</v>
+      </c>
+      <c r="G10" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H10" s="11">
+        <f>F11/F10*G10</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="8"/>
+      <c r="B11" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F11" s="10">
+        <f>SUM(B11:E11)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="4">
+        <v>25</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="9">
+        <v>5</v>
+      </c>
+      <c r="F12" s="10">
+        <f>SUM(B12:E12)</f>
+        <v>30</v>
+      </c>
+      <c r="G12" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H12" s="11">
+        <f>F13/F12*G12</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="8"/>
+      <c r="B13" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F13" s="10">
+        <f>SUM(B13:E13)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" s="4">
+        <v>25</v>
+      </c>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="9">
+        <v>5</v>
+      </c>
+      <c r="F14" s="10">
+        <f>SUM(B14:E14)</f>
+        <v>30</v>
+      </c>
+      <c r="G14" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H14" s="11">
+        <f>F15/F14*G14</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A15" s="8"/>
+      <c r="B15" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F15" s="10">
+        <f>SUM(B15:E15)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B16" s="4">
+        <v>25</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="9">
+        <v>5</v>
+      </c>
+      <c r="F16" s="10">
+        <f>SUM(B16:E16)</f>
+        <v>30</v>
+      </c>
+      <c r="G16" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H16" s="11">
+        <f>F17/F16*G16</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A17" s="8"/>
+      <c r="B17" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C17" s="5"/>
+      <c r="D17" s="5"/>
+      <c r="E17" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F17" s="10">
+        <f>SUM(B17:E17)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A18" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" s="4">
+        <v>25</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="9">
+        <v>5</v>
+      </c>
+      <c r="F18" s="10">
+        <f>SUM(B18:E18)</f>
+        <v>30</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0.3</v>
+      </c>
+      <c r="H18" s="11">
+        <f>F19/F18*G18</f>
+        <v>0.22320999999999996</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A19" s="8"/>
+      <c r="B19" s="12">
+        <v>18.286999999999999</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="13">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="F19" s="10">
+        <f>SUM(B19:E19)</f>
+        <v>22.320999999999998</v>
+      </c>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+    </row>
+  </sheetData>
+  <mergeCells count="25">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:G3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>